--- a/media/IDFC_TW/MIS/MAR 22/Performance_IDFC_TW.xlsx
+++ b/media/IDFC_TW/MIS/MAR 22/Performance_IDFC_TW.xlsx
@@ -616,19 +616,19 @@
         <v>2248</v>
       </c>
       <c r="F2" t="n">
-        <v>347</v>
+        <v>631</v>
       </c>
       <c r="G2" t="n">
-        <v>1409</v>
+        <v>1258</v>
       </c>
       <c r="H2" t="n">
-        <v>490</v>
+        <v>348</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13219659.89</v>
+        <v>27215287.94</v>
       </c>
       <c r="O2" t="n">
-        <v>53261658.39</v>
+        <v>45018323.74</v>
       </c>
       <c r="P2" t="n">
-        <v>17764527.88</v>
+        <v>11540812.19</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33595.7</v>
+        <v>505017.99</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15.69</v>
+        <v>32.29</v>
       </c>
       <c r="W2" t="n">
-        <v>63.2</v>
+        <v>53.42</v>
       </c>
       <c r="X2" t="n">
-        <v>21.08</v>
+        <v>13.69</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -682,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>8708829.539999999</v>
+        <v>7054848.94</v>
       </c>
       <c r="AE2" t="n">
-        <v>84.28</v>
+        <v>67.11</v>
       </c>
       <c r="AF2" t="n">
-        <v>21.08</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="3">
@@ -718,34 +718,34 @@
         <v>6</v>
       </c>
       <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26790.49</v>
+        <v>57565.2</v>
       </c>
       <c r="O3" t="n">
-        <v>67707.95</v>
+        <v>56835.24</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -760,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>30268.72</v>
+        <v>10366.72</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>21.47</v>
+        <v>46.14</v>
       </c>
       <c r="W3" t="n">
-        <v>54.27</v>
+        <v>45.55</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.26</v>
+        <v>8.31</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>28534</v>
+        <v>16052</v>
       </c>
       <c r="AE3" t="n">
-        <v>78.53</v>
+        <v>53.86</v>
       </c>
       <c r="AF3" t="n">
-        <v>24.26</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>16852.6</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16852.6</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -922,85 +922,85 @@
         <v>655</v>
       </c>
       <c r="F5" t="n">
-        <v>236</v>
+        <v>373</v>
       </c>
       <c r="G5" t="n">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>7497802.34</v>
+        <v>12287505.76</v>
       </c>
       <c r="O5" t="n">
-        <v>11590878.27</v>
+        <v>7357918.92</v>
       </c>
       <c r="P5" t="n">
-        <v>160039.83</v>
+        <v>126342.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>127424.47</v>
+        <v>136181.6</v>
       </c>
       <c r="R5" t="n">
-        <v>17155.1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1062606.1</v>
+        <v>547957.09</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>36.65</v>
+        <v>60.07</v>
       </c>
       <c r="W5" t="n">
-        <v>56.66</v>
+        <v>35.97</v>
       </c>
       <c r="X5" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.19</v>
+        <v>2.68</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1892430.57</v>
+        <v>1261361.67</v>
       </c>
       <c r="AE5" t="n">
-        <v>63.25</v>
+        <v>39.94</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.59</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="6">
